--- a/Report/1_3_6.xlsx
+++ b/Report/1_3_6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Mô tả" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1438,6 +1438,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2034,8 +2041,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2080,17 +2096,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2749,8 +2756,8 @@
   </sheetPr>
   <dimension ref="C2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2762,24 +2769,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="50.25" customHeight="1">
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-    </row>
-    <row r="3" spans="3:9" ht="112.5" customHeight="1">
-      <c r="C3" s="150" t="s">
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+    </row>
+    <row r="3" spans="3:9" ht="75.75" customHeight="1">
+      <c r="C3" s="153" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="3:9" ht="27" customHeight="1">
       <c r="C4" s="99" t="s">
@@ -2809,12 +2816,12 @@
       <c r="C7" s="105" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="154" t="s">
         <v>407</v>
       </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
     </row>
     <row r="8" spans="3:9" ht="34.5" customHeight="1">
       <c r="C8" s="99" t="s">
@@ -2831,6 +2838,7 @@
     <mergeCell ref="D7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2841,7 +2849,7 @@
   </sheetPr>
   <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2869,10 +2877,10 @@
     <row r="3" spans="1:9" ht="57" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="153"/>
+      <c r="D3" s="156"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3076,7 +3084,7 @@
       <c r="H14" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="154"/>
+      <c r="I14" s="157"/>
     </row>
     <row r="15" spans="1:9" ht="187.5">
       <c r="A15" s="78">
@@ -3103,7 +3111,7 @@
       <c r="H15" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="149"/>
+      <c r="I15" s="152"/>
     </row>
     <row r="16" spans="1:9" ht="206.25">
       <c r="A16" s="78">
@@ -3130,7 +3138,7 @@
       <c r="H16" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="149"/>
+      <c r="I16" s="152"/>
     </row>
     <row r="17" spans="1:9" ht="167.25" customHeight="1">
       <c r="A17" s="78">
@@ -3157,7 +3165,7 @@
       <c r="H17" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="149"/>
+      <c r="I17" s="152"/>
     </row>
     <row r="18" spans="1:9" ht="225">
       <c r="A18" s="78">
@@ -3184,7 +3192,7 @@
       <c r="H18" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="149"/>
+      <c r="I18" s="152"/>
     </row>
     <row r="19" spans="1:9" ht="262.5">
       <c r="A19" s="78">
@@ -3211,7 +3219,7 @@
       <c r="H19" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="149"/>
+      <c r="I19" s="152"/>
     </row>
     <row r="20" spans="1:9" ht="150">
       <c r="A20" s="78">
@@ -3238,7 +3246,7 @@
       <c r="H20" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="149"/>
+      <c r="I20" s="152"/>
     </row>
     <row r="21" spans="1:9" ht="150">
       <c r="A21" s="78"/>
@@ -3263,7 +3271,7 @@
       <c r="H21" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="149"/>
+      <c r="I21" s="152"/>
     </row>
     <row r="22" spans="1:9" ht="75">
       <c r="A22" s="78"/>
@@ -3288,7 +3296,7 @@
       <c r="H22" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="149"/>
+      <c r="I22" s="152"/>
     </row>
     <row r="23" spans="1:9" ht="56.25">
       <c r="A23" s="78"/>
@@ -3313,7 +3321,7 @@
       <c r="H23" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="149"/>
+      <c r="I23" s="152"/>
     </row>
     <row r="24" spans="1:9" ht="18.75">
       <c r="A24" s="78"/>
@@ -3338,7 +3346,7 @@
       <c r="H24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="149"/>
+      <c r="I24" s="152"/>
     </row>
     <row r="25" spans="1:9" ht="75">
       <c r="A25" s="78"/>
@@ -3363,7 +3371,7 @@
       <c r="H25" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="149"/>
+      <c r="I25" s="152"/>
     </row>
     <row r="26" spans="1:9" ht="18.75">
       <c r="A26" s="78"/>
@@ -3378,7 +3386,7 @@
       <c r="F26" s="81"/>
       <c r="G26" s="81"/>
       <c r="H26" s="79"/>
-      <c r="I26" s="149"/>
+      <c r="I26" s="152"/>
     </row>
     <row r="27" spans="1:9" ht="18.75">
       <c r="A27" s="78"/>
@@ -3393,7 +3401,7 @@
       <c r="F27" s="81"/>
       <c r="G27" s="81"/>
       <c r="H27" s="79"/>
-      <c r="I27" s="149"/>
+      <c r="I27" s="152"/>
     </row>
     <row r="28" spans="1:9" ht="18.75">
       <c r="A28" s="79"/>
@@ -3408,7 +3416,7 @@
       <c r="F28" s="81"/>
       <c r="G28" s="81"/>
       <c r="H28" s="79"/>
-      <c r="I28" s="149"/>
+      <c r="I28" s="152"/>
     </row>
     <row r="29" spans="1:9" ht="18.75">
       <c r="A29" s="83"/>
@@ -3419,7 +3427,7 @@
       <c r="F29" s="88"/>
       <c r="G29" s="88"/>
       <c r="H29" s="83"/>
-      <c r="I29" s="149"/>
+      <c r="I29" s="152"/>
     </row>
     <row r="30" spans="1:9" ht="18.75">
       <c r="A30" s="83"/>
@@ -3430,7 +3438,7 @@
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
       <c r="H30" s="83"/>
-      <c r="I30" s="149"/>
+      <c r="I30" s="152"/>
     </row>
     <row r="31" spans="1:9" ht="18.75">
       <c r="A31" s="83"/>
@@ -3441,7 +3449,7 @@
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
       <c r="H31" s="83"/>
-      <c r="I31" s="149"/>
+      <c r="I31" s="152"/>
     </row>
     <row r="32" spans="1:9" ht="18.75">
       <c r="A32" s="83"/>
@@ -3452,7 +3460,7 @@
       <c r="F32" s="88"/>
       <c r="G32" s="88"/>
       <c r="H32" s="83"/>
-      <c r="I32" s="149"/>
+      <c r="I32" s="152"/>
     </row>
     <row r="33" spans="1:9" ht="18.75">
       <c r="A33" s="83"/>
@@ -3463,7 +3471,7 @@
       <c r="F33" s="88"/>
       <c r="G33" s="88"/>
       <c r="H33" s="83"/>
-      <c r="I33" s="149"/>
+      <c r="I33" s="152"/>
     </row>
     <row r="34" spans="1:9" ht="18.75">
       <c r="A34" s="83"/>
@@ -3474,7 +3482,7 @@
       <c r="F34" s="88"/>
       <c r="G34" s="88"/>
       <c r="H34" s="83"/>
-      <c r="I34" s="149"/>
+      <c r="I34" s="152"/>
     </row>
     <row r="35" spans="1:9" ht="18.75">
       <c r="A35" s="83"/>
@@ -3485,7 +3493,7 @@
       <c r="F35" s="88"/>
       <c r="G35" s="88"/>
       <c r="H35" s="83"/>
-      <c r="I35" s="149"/>
+      <c r="I35" s="152"/>
     </row>
     <row r="36" spans="1:9" ht="18.75">
       <c r="A36" s="83"/>
@@ -3496,7 +3504,7 @@
       <c r="F36" s="88"/>
       <c r="G36" s="88"/>
       <c r="H36" s="83"/>
-      <c r="I36" s="149"/>
+      <c r="I36" s="152"/>
     </row>
     <row r="37" spans="1:9" ht="18.75">
       <c r="A37" s="83"/>
@@ -3507,7 +3515,7 @@
       <c r="F37" s="88"/>
       <c r="G37" s="88"/>
       <c r="H37" s="83"/>
-      <c r="I37" s="149"/>
+      <c r="I37" s="152"/>
     </row>
     <row r="38" spans="1:9" ht="18.75">
       <c r="A38" s="83"/>
@@ -3518,7 +3526,7 @@
       <c r="F38" s="88"/>
       <c r="G38" s="88"/>
       <c r="H38" s="83"/>
-      <c r="I38" s="149"/>
+      <c r="I38" s="152"/>
     </row>
     <row r="39" spans="1:9" ht="18.75">
       <c r="A39" s="83"/>
@@ -3529,7 +3537,7 @@
       <c r="F39" s="88"/>
       <c r="G39" s="88"/>
       <c r="H39" s="83"/>
-      <c r="I39" s="149"/>
+      <c r="I39" s="152"/>
     </row>
     <row r="40" spans="1:9" ht="18.75">
       <c r="A40" s="83"/>
@@ -3540,7 +3548,7 @@
       <c r="F40" s="88"/>
       <c r="G40" s="88"/>
       <c r="H40" s="83"/>
-      <c r="I40" s="149"/>
+      <c r="I40" s="152"/>
     </row>
     <row r="41" spans="1:9" ht="18.75">
       <c r="A41" s="83"/>
@@ -3551,7 +3559,7 @@
       <c r="F41" s="88"/>
       <c r="G41" s="88"/>
       <c r="H41" s="83"/>
-      <c r="I41" s="149"/>
+      <c r="I41" s="152"/>
     </row>
     <row r="42" spans="1:9" ht="12.75">
       <c r="A42" s="10"/>
@@ -3756,10 +3764,10 @@
       <c r="A4" s="108"/>
       <c r="B4" s="109"/>
       <c r="C4" s="108"/>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="156"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="108"/>
       <c r="G4" s="108"/>
       <c r="H4" s="108"/>
@@ -4119,7 +4127,7 @@
       <c r="I17" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="157"/>
+      <c r="J17" s="160"/>
       <c r="K17" s="118"/>
       <c r="L17" s="118"/>
       <c r="M17" s="118"/>
@@ -4158,7 +4166,7 @@
       <c r="I18" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="156"/>
+      <c r="J18" s="159"/>
       <c r="K18" s="118"/>
       <c r="L18" s="118"/>
       <c r="M18" s="118"/>
@@ -4198,7 +4206,7 @@
       <c r="I19" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="156"/>
+      <c r="J19" s="159"/>
       <c r="K19" s="118"/>
       <c r="L19" s="118"/>
       <c r="M19" s="118"/>
@@ -4237,7 +4245,7 @@
       <c r="I20" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="156"/>
+      <c r="J20" s="159"/>
       <c r="K20" s="118"/>
       <c r="L20" s="118"/>
       <c r="M20" s="118"/>
@@ -4276,7 +4284,7 @@
       <c r="I21" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="156"/>
+      <c r="J21" s="159"/>
       <c r="K21" s="118"/>
       <c r="L21" s="118"/>
       <c r="M21" s="118"/>
@@ -4315,7 +4323,7 @@
       <c r="I22" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="156"/>
+      <c r="J22" s="159"/>
       <c r="K22" s="118"/>
       <c r="L22" s="118"/>
       <c r="M22" s="118"/>
@@ -4354,7 +4362,7 @@
       <c r="I23" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="156"/>
+      <c r="J23" s="159"/>
       <c r="K23" s="118"/>
       <c r="L23" s="118"/>
       <c r="M23" s="118"/>
@@ -4393,7 +4401,7 @@
       <c r="I24" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="156"/>
+      <c r="J24" s="159"/>
       <c r="K24" s="118"/>
       <c r="L24" s="118"/>
       <c r="M24" s="118"/>
@@ -4432,7 +4440,7 @@
       <c r="I25" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="156"/>
+      <c r="J25" s="159"/>
       <c r="K25" s="118"/>
       <c r="L25" s="118"/>
       <c r="M25" s="118"/>
@@ -4471,7 +4479,7 @@
       <c r="I26" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="156"/>
+      <c r="J26" s="159"/>
       <c r="K26" s="118"/>
       <c r="L26" s="118"/>
       <c r="M26" s="118"/>
@@ -4510,7 +4518,7 @@
       <c r="I27" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="156"/>
+      <c r="J27" s="159"/>
       <c r="K27" s="118"/>
       <c r="L27" s="118"/>
       <c r="M27" s="118"/>
@@ -4549,7 +4557,7 @@
       <c r="I28" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="156"/>
+      <c r="J28" s="159"/>
       <c r="K28" s="118"/>
       <c r="L28" s="118"/>
       <c r="M28" s="118"/>
@@ -4588,7 +4596,7 @@
       <c r="I29" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="156"/>
+      <c r="J29" s="159"/>
       <c r="K29" s="118"/>
       <c r="L29" s="118"/>
       <c r="M29" s="118"/>
@@ -4627,7 +4635,7 @@
       <c r="I30" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="156"/>
+      <c r="J30" s="159"/>
       <c r="K30" s="118"/>
       <c r="L30" s="118"/>
       <c r="M30" s="118"/>
@@ -4650,7 +4658,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="122"/>
-      <c r="J31" s="156"/>
+      <c r="J31" s="159"/>
       <c r="K31" s="118"/>
       <c r="L31" s="118"/>
       <c r="M31" s="118"/>
@@ -4673,7 +4681,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="122"/>
-      <c r="J32" s="156"/>
+      <c r="J32" s="159"/>
       <c r="K32" s="118"/>
       <c r="L32" s="118"/>
       <c r="M32" s="118"/>
@@ -4696,7 +4704,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="122"/>
-      <c r="J33" s="156"/>
+      <c r="J33" s="159"/>
       <c r="K33" s="118"/>
       <c r="L33" s="118"/>
       <c r="M33" s="118"/>
@@ -4719,7 +4727,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="122"/>
-      <c r="J34" s="156"/>
+      <c r="J34" s="159"/>
       <c r="K34" s="118"/>
       <c r="L34" s="118"/>
       <c r="M34" s="118"/>
@@ -4742,7 +4750,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="122"/>
-      <c r="J35" s="156"/>
+      <c r="J35" s="159"/>
       <c r="K35" s="118"/>
       <c r="L35" s="118"/>
       <c r="M35" s="118"/>
@@ -4763,7 +4771,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="122"/>
-      <c r="J36" s="156"/>
+      <c r="J36" s="159"/>
       <c r="K36" s="118"/>
       <c r="L36" s="118"/>
       <c r="M36" s="118"/>
@@ -4784,7 +4792,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="122"/>
-      <c r="J37" s="156"/>
+      <c r="J37" s="159"/>
       <c r="K37" s="118"/>
       <c r="L37" s="118"/>
       <c r="M37" s="118"/>
@@ -4805,7 +4813,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="122"/>
-      <c r="J38" s="156"/>
+      <c r="J38" s="159"/>
       <c r="K38" s="118"/>
       <c r="L38" s="118"/>
       <c r="M38" s="118"/>
@@ -4826,7 +4834,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="122"/>
-      <c r="J39" s="156"/>
+      <c r="J39" s="159"/>
       <c r="K39" s="118"/>
       <c r="L39" s="118"/>
       <c r="M39" s="118"/>
@@ -4847,7 +4855,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="122"/>
-      <c r="J40" s="156"/>
+      <c r="J40" s="159"/>
       <c r="K40" s="118"/>
       <c r="L40" s="118"/>
       <c r="M40" s="118"/>
@@ -4868,7 +4876,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="122"/>
-      <c r="J41" s="156"/>
+      <c r="J41" s="159"/>
       <c r="K41" s="118"/>
       <c r="L41" s="118"/>
       <c r="M41" s="118"/>
@@ -4889,7 +4897,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="122"/>
-      <c r="J42" s="156"/>
+      <c r="J42" s="159"/>
       <c r="K42" s="118"/>
       <c r="L42" s="118"/>
       <c r="M42" s="118"/>
@@ -4910,7 +4918,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="122"/>
-      <c r="J43" s="156"/>
+      <c r="J43" s="159"/>
       <c r="K43" s="118"/>
       <c r="L43" s="118"/>
       <c r="M43" s="118"/>
@@ -4931,7 +4939,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="122"/>
-      <c r="J44" s="156"/>
+      <c r="J44" s="159"/>
       <c r="K44" s="118"/>
       <c r="L44" s="118"/>
       <c r="M44" s="118"/>
@@ -25158,10 +25166,10 @@
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="152" t="s">
+      <c r="D11" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="153"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
@@ -25567,7 +25575,7 @@
       <c r="I22" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="158"/>
+      <c r="J22" s="161"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -25612,7 +25620,7 @@
       <c r="I23" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="159"/>
+      <c r="J23" s="162"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -25659,7 +25667,7 @@
       <c r="I24" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="159"/>
+      <c r="J24" s="162"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -25706,7 +25714,7 @@
       <c r="I25" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="159"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -25751,7 +25759,7 @@
       <c r="I26" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="159"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -25798,7 +25806,7 @@
       <c r="I27" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="159"/>
+      <c r="J27" s="162"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -25845,7 +25853,7 @@
       <c r="I28" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="159"/>
+      <c r="J28" s="162"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -25890,7 +25898,7 @@
       <c r="I29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="159"/>
+      <c r="J29" s="162"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -25937,7 +25945,7 @@
       <c r="I30" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="159"/>
+      <c r="J30" s="162"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -25984,7 +25992,7 @@
       <c r="I31" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="159"/>
+      <c r="J31" s="162"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
@@ -26029,7 +26037,7 @@
       <c r="I32" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="159"/>
+      <c r="J32" s="162"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -26076,7 +26084,7 @@
       <c r="I33" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="159"/>
+      <c r="J33" s="162"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -26123,7 +26131,7 @@
       <c r="I34" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="159"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -26168,7 +26176,7 @@
       <c r="I35" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="159"/>
+      <c r="J35" s="162"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -26199,7 +26207,7 @@
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="159"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -26230,7 +26238,7 @@
       <c r="G37" s="106"/>
       <c r="H37" s="106"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="159"/>
+      <c r="J37" s="162"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -26259,7 +26267,7 @@
       <c r="G38" s="106"/>
       <c r="H38" s="106"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="159"/>
+      <c r="J38" s="162"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -26290,7 +26298,7 @@
       <c r="G39" s="106"/>
       <c r="H39" s="106"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="159"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -26321,7 +26329,7 @@
       <c r="G40" s="106"/>
       <c r="H40" s="106"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="159"/>
+      <c r="J40" s="162"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
@@ -26350,7 +26358,7 @@
       <c r="G41" s="106"/>
       <c r="H41" s="106"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="159"/>
+      <c r="J41" s="162"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -26381,7 +26389,7 @@
       <c r="G42" s="106"/>
       <c r="H42" s="106"/>
       <c r="I42" s="30"/>
-      <c r="J42" s="159"/>
+      <c r="J42" s="162"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -26412,7 +26420,7 @@
       <c r="G43" s="106"/>
       <c r="H43" s="106"/>
       <c r="I43" s="30"/>
-      <c r="J43" s="159"/>
+      <c r="J43" s="162"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
@@ -26441,7 +26449,7 @@
       <c r="G44" s="106"/>
       <c r="H44" s="106"/>
       <c r="I44" s="30"/>
-      <c r="J44" s="159"/>
+      <c r="J44" s="162"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -26472,7 +26480,7 @@
       <c r="G45" s="106"/>
       <c r="H45" s="106"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="159"/>
+      <c r="J45" s="162"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
@@ -26503,7 +26511,7 @@
       <c r="G46" s="106"/>
       <c r="H46" s="106"/>
       <c r="I46" s="30"/>
-      <c r="J46" s="159"/>
+      <c r="J46" s="162"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
@@ -26532,7 +26540,7 @@
       <c r="G47" s="106"/>
       <c r="H47" s="106"/>
       <c r="I47" s="30"/>
-      <c r="J47" s="159"/>
+      <c r="J47" s="162"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
@@ -26563,7 +26571,7 @@
       <c r="G48" s="106"/>
       <c r="H48" s="106"/>
       <c r="I48" s="30"/>
-      <c r="J48" s="159"/>
+      <c r="J48" s="162"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -26594,7 +26602,7 @@
       <c r="G49" s="106"/>
       <c r="H49" s="106"/>
       <c r="I49" s="30"/>
-      <c r="J49" s="159"/>
+      <c r="J49" s="162"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -54001,13 +54009,13 @@
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -54179,7 +54187,7 @@
       <c r="I18" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="160"/>
+      <c r="J18" s="163"/>
     </row>
     <row r="19" spans="1:10" ht="60" customHeight="1">
       <c r="A19" s="45" t="s">
@@ -54209,7 +54217,7 @@
       <c r="I19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="161"/>
+      <c r="J19" s="164"/>
     </row>
     <row r="20" spans="1:10" ht="54.75" customHeight="1">
       <c r="A20" s="57"/>
@@ -54237,7 +54245,7 @@
       <c r="I20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="161"/>
+      <c r="J20" s="164"/>
     </row>
     <row r="21" spans="1:10" ht="77.25" customHeight="1">
       <c r="A21" s="45" t="s">
@@ -54267,7 +54275,7 @@
       <c r="I21" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="161"/>
+      <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:10" ht="60" customHeight="1">
       <c r="A22" s="45" t="s">
@@ -54325,7 +54333,7 @@
       <c r="I23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="162"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="75">
       <c r="A24" s="45" t="s">
@@ -54355,7 +54363,7 @@
       <c r="I24" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="162"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="56.25">
       <c r="A25" s="45" t="s">
@@ -54385,7 +54393,7 @@
       <c r="I25" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="162"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="56.25">
       <c r="A26" s="40"/>
@@ -54413,7 +54421,7 @@
       <c r="I26" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="162"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="75">
       <c r="A27" s="40"/>
@@ -54441,7 +54449,7 @@
       <c r="I27" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="162"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="37.5">
       <c r="A28" s="40"/>
@@ -54469,7 +54477,7 @@
       <c r="I28" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="162"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="37.5">
       <c r="A29" s="40"/>
@@ -54497,7 +54505,7 @@
       <c r="I29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="162"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="37.5">
       <c r="A30" s="40"/>
@@ -54525,7 +54533,7 @@
       <c r="I30" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="162"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="56.25">
       <c r="A31" s="40"/>
@@ -54553,7 +54561,7 @@
       <c r="I31" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="162"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="37.5">
       <c r="A32" s="40"/>
@@ -54581,7 +54589,7 @@
       <c r="I32" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="163"/>
+      <c r="J32" s="166"/>
     </row>
     <row r="33" spans="1:10" ht="18.75">
       <c r="A33" s="62"/>
@@ -59557,12 +59565,12 @@
     <row r="8" spans="1:10" ht="44.25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="155" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -59745,7 +59753,7 @@
       <c r="D19" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="166" t="s">
+      <c r="E19" s="148" t="s">
         <v>269</v>
       </c>
       <c r="F19" s="31" t="s">
@@ -59775,7 +59783,7 @@
       <c r="D20" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="167" t="s">
+      <c r="E20" s="149" t="s">
         <v>271</v>
       </c>
       <c r="F20" s="31" t="s">
@@ -59790,7 +59798,7 @@
       <c r="I20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="164"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="40"/>
@@ -59803,7 +59811,7 @@
       <c r="D21" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="148" t="s">
         <v>275</v>
       </c>
       <c r="F21" s="31" t="s">
@@ -59818,7 +59826,7 @@
       <c r="I21" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="153"/>
+      <c r="J21" s="156"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="40" t="s">
@@ -59833,7 +59841,7 @@
       <c r="D22" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="168" t="s">
+      <c r="E22" s="150" t="s">
         <v>277</v>
       </c>
       <c r="F22" s="31" t="s">
@@ -59848,7 +59856,7 @@
       <c r="I22" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="153"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="40" t="s">
@@ -59863,7 +59871,7 @@
       <c r="D23" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E23" s="168" t="s">
+      <c r="E23" s="150" t="s">
         <v>280</v>
       </c>
       <c r="F23" s="31" t="s">
@@ -59878,7 +59886,7 @@
       <c r="I23" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="153"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:10" ht="37.5">
       <c r="A24" s="40"/>
@@ -59891,7 +59899,7 @@
       <c r="D24" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E24" s="168" t="s">
+      <c r="E24" s="150" t="s">
         <v>283</v>
       </c>
       <c r="F24" s="31" t="s">
@@ -59906,7 +59914,7 @@
       <c r="I24" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="153"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="1:10" ht="56.25">
       <c r="A25" s="40" t="s">
@@ -59921,7 +59929,7 @@
       <c r="D25" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="169" t="s">
+      <c r="E25" s="151" t="s">
         <v>286</v>
       </c>
       <c r="F25" s="31" t="s">
@@ -59936,7 +59944,7 @@
       <c r="I25" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="153"/>
+      <c r="J25" s="156"/>
     </row>
     <row r="26" spans="1:10" ht="56.25">
       <c r="A26" s="40" t="s">
@@ -59951,7 +59959,7 @@
       <c r="D26" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E26" s="168" t="s">
+      <c r="E26" s="150" t="s">
         <v>289</v>
       </c>
       <c r="F26" s="31" t="s">
@@ -59966,7 +59974,7 @@
       <c r="I26" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="153"/>
+      <c r="J26" s="156"/>
     </row>
     <row r="27" spans="1:10" ht="56.25">
       <c r="A27" s="40"/>
@@ -59979,7 +59987,7 @@
       <c r="D27" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="169" t="s">
+      <c r="E27" s="151" t="s">
         <v>292</v>
       </c>
       <c r="F27" s="31" t="s">
@@ -59994,7 +60002,7 @@
       <c r="I27" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="153"/>
+      <c r="J27" s="156"/>
     </row>
     <row r="28" spans="1:10" ht="75">
       <c r="A28" s="40"/>
@@ -60007,7 +60015,7 @@
       <c r="D28" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E28" s="168" t="s">
+      <c r="E28" s="150" t="s">
         <v>295</v>
       </c>
       <c r="F28" s="31" t="s">
@@ -60022,7 +60030,7 @@
       <c r="I28" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="153"/>
+      <c r="J28" s="156"/>
     </row>
     <row r="29" spans="1:10" ht="37.5">
       <c r="A29" s="40"/>
@@ -60035,7 +60043,7 @@
       <c r="D29" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E29" s="168" t="s">
+      <c r="E29" s="150" t="s">
         <v>298</v>
       </c>
       <c r="F29" s="31" t="s">
@@ -60050,7 +60058,7 @@
       <c r="I29" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="153"/>
+      <c r="J29" s="156"/>
     </row>
     <row r="30" spans="1:10" ht="37.5">
       <c r="A30" s="40"/>
@@ -60063,7 +60071,7 @@
       <c r="D30" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E30" s="168" t="s">
+      <c r="E30" s="150" t="s">
         <v>300</v>
       </c>
       <c r="F30" s="30" t="s">
@@ -60078,7 +60086,7 @@
       <c r="I30" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="153"/>
+      <c r="J30" s="156"/>
     </row>
     <row r="31" spans="1:10" ht="37.5">
       <c r="A31" s="40"/>
@@ -60091,7 +60099,7 @@
       <c r="D31" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E31" s="168" t="s">
+      <c r="E31" s="150" t="s">
         <v>303</v>
       </c>
       <c r="F31" s="31" t="s">
@@ -60106,7 +60114,7 @@
       <c r="I31" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="153"/>
+      <c r="J31" s="156"/>
     </row>
     <row r="32" spans="1:10" ht="56.25">
       <c r="A32" s="40"/>
@@ -60119,7 +60127,7 @@
       <c r="D32" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="168" t="s">
+      <c r="E32" s="150" t="s">
         <v>306</v>
       </c>
       <c r="F32" s="31" t="s">
@@ -60134,7 +60142,7 @@
       <c r="I32" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="153"/>
+      <c r="J32" s="156"/>
     </row>
     <row r="33" spans="1:10" ht="37.5">
       <c r="A33" s="40"/>
@@ -60147,7 +60155,7 @@
       <c r="D33" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="168" t="s">
+      <c r="E33" s="150" t="s">
         <v>309</v>
       </c>
       <c r="F33" s="31" t="s">
@@ -60162,7 +60170,7 @@
       <c r="I33" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="153"/>
+      <c r="J33" s="156"/>
     </row>
     <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="24"/>
@@ -60174,7 +60182,7 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="153"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="24"/>
@@ -60186,7 +60194,7 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="153"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:10" ht="18.75">
       <c r="A36" s="25"/>
@@ -60198,7 +60206,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="153"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="24"/>
@@ -60210,7 +60218,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="153"/>
+      <c r="J37" s="156"/>
     </row>
     <row r="38" spans="1:10" ht="18.75">
       <c r="A38" s="24"/>
@@ -60222,7 +60230,7 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="153"/>
+      <c r="J38" s="156"/>
     </row>
     <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="25"/>
@@ -60234,7 +60242,7 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="15"/>
-      <c r="J39" s="153"/>
+      <c r="J39" s="156"/>
     </row>
     <row r="40" spans="1:10" ht="18.75">
       <c r="A40" s="24"/>
@@ -60246,7 +60254,7 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="15"/>
-      <c r="J40" s="153"/>
+      <c r="J40" s="156"/>
     </row>
     <row r="41" spans="1:10" ht="18.75">
       <c r="A41" s="24"/>
@@ -60258,7 +60266,7 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="153"/>
+      <c r="J41" s="156"/>
     </row>
     <row r="42" spans="1:10" ht="18.75">
       <c r="A42" s="25"/>
@@ -60270,7 +60278,7 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="153"/>
+      <c r="J42" s="156"/>
     </row>
     <row r="43" spans="1:10" ht="18.75">
       <c r="A43" s="24"/>
@@ -60282,7 +60290,7 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="153"/>
+      <c r="J43" s="156"/>
     </row>
     <row r="44" spans="1:10" ht="18.75">
       <c r="A44" s="24"/>
@@ -60294,7 +60302,7 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="153"/>
+      <c r="J44" s="156"/>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="A45" s="25"/>
@@ -60306,7 +60314,7 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="15"/>
-      <c r="J45" s="153"/>
+      <c r="J45" s="156"/>
     </row>
     <row r="46" spans="1:10" ht="18.75">
       <c r="A46" s="24"/>
@@ -60318,7 +60326,7 @@
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="153"/>
+      <c r="J46" s="156"/>
     </row>
     <row r="47" spans="1:10" ht="18.75">
       <c r="A47" s="24"/>
@@ -60330,7 +60338,7 @@
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="15"/>
-      <c r="J47" s="153"/>
+      <c r="J47" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -60349,7 +60357,7 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -60403,12 +60411,12 @@
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
       <c r="A4" s="18"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="155" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -60626,7 +60634,7 @@
       <c r="I15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="158"/>
+      <c r="J15" s="161"/>
     </row>
     <row r="16" spans="1:10" ht="112.5">
       <c r="A16" s="45" t="s">
@@ -60656,7 +60664,7 @@
       <c r="I16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="159"/>
+      <c r="J16" s="162"/>
     </row>
     <row r="17" spans="1:10" ht="187.5">
       <c r="A17" s="40" t="s">
@@ -60686,7 +60694,7 @@
       <c r="I17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="159"/>
+      <c r="J17" s="162"/>
     </row>
     <row r="18" spans="1:10" ht="37.5">
       <c r="A18" s="40" t="s">
@@ -60716,7 +60724,7 @@
       <c r="I18" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="159"/>
+      <c r="J18" s="162"/>
     </row>
     <row r="19" spans="1:10" ht="56.25">
       <c r="A19" s="40"/>
@@ -60744,7 +60752,7 @@
       <c r="I19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="159"/>
+      <c r="J19" s="162"/>
     </row>
     <row r="20" spans="1:10" ht="75">
       <c r="A20" s="40" t="s">
@@ -60774,7 +60782,7 @@
       <c r="I20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="159"/>
+      <c r="J20" s="162"/>
     </row>
     <row r="21" spans="1:10" ht="56.25">
       <c r="A21" s="40" t="s">
@@ -60804,7 +60812,7 @@
       <c r="I21" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="159"/>
+      <c r="J21" s="162"/>
     </row>
     <row r="22" spans="1:10" ht="75">
       <c r="A22" s="40"/>
@@ -60832,7 +60840,7 @@
       <c r="I22" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="159"/>
+      <c r="J22" s="162"/>
     </row>
     <row r="23" spans="1:10" ht="93.75">
       <c r="A23" s="40"/>
@@ -60860,7 +60868,7 @@
       <c r="I23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="159"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:10" ht="56.25">
       <c r="A24" s="40"/>
@@ -60888,7 +60896,7 @@
       <c r="I24" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="159"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:10" ht="37.5">
       <c r="A25" s="40"/>
@@ -60916,7 +60924,7 @@
       <c r="I25" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="159"/>
+      <c r="J25" s="162"/>
     </row>
     <row r="26" spans="1:10" ht="56.25">
       <c r="A26" s="40"/>
@@ -60944,7 +60952,7 @@
       <c r="I26" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="159"/>
+      <c r="J26" s="162"/>
     </row>
     <row r="27" spans="1:10" ht="93.75">
       <c r="A27" s="40"/>
@@ -60972,7 +60980,7 @@
       <c r="I27" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="159"/>
+      <c r="J27" s="162"/>
     </row>
     <row r="28" spans="1:10" ht="75">
       <c r="A28" s="40"/>
@@ -61000,7 +61008,7 @@
       <c r="I28" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="159"/>
+      <c r="J28" s="162"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
       <c r="A29" s="48"/>
@@ -61012,7 +61020,7 @@
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
       <c r="I29" s="50"/>
-      <c r="J29" s="165"/>
+      <c r="J29" s="168"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="48"/>
@@ -61024,7 +61032,7 @@
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="50"/>
-      <c r="J30" s="165"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="1:10" ht="18.75">
       <c r="A31" s="48"/>
@@ -61036,7 +61044,7 @@
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
       <c r="I31" s="50"/>
-      <c r="J31" s="165"/>
+      <c r="J31" s="168"/>
     </row>
     <row r="32" spans="1:10" ht="18.75">
       <c r="A32" s="48"/>
@@ -61048,7 +61056,7 @@
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
       <c r="I32" s="50"/>
-      <c r="J32" s="165"/>
+      <c r="J32" s="168"/>
     </row>
     <row r="33" spans="1:10" ht="18.75">
       <c r="A33" s="48"/>
@@ -61060,7 +61068,7 @@
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
       <c r="I33" s="50"/>
-      <c r="J33" s="165"/>
+      <c r="J33" s="168"/>
     </row>
     <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="48"/>
@@ -61072,7 +61080,7 @@
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
       <c r="I34" s="50"/>
-      <c r="J34" s="165"/>
+      <c r="J34" s="168"/>
     </row>
     <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="48"/>
@@ -61084,7 +61092,7 @@
       <c r="G35" s="52"/>
       <c r="H35" s="52"/>
       <c r="I35" s="50"/>
-      <c r="J35" s="165"/>
+      <c r="J35" s="168"/>
     </row>
     <row r="36" spans="1:10" ht="18.75">
       <c r="A36" s="48"/>
@@ -61096,7 +61104,7 @@
       <c r="G36" s="52"/>
       <c r="H36" s="52"/>
       <c r="I36" s="50"/>
-      <c r="J36" s="165"/>
+      <c r="J36" s="168"/>
     </row>
     <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="48"/>
@@ -61108,7 +61116,7 @@
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
       <c r="I37" s="50"/>
-      <c r="J37" s="165"/>
+      <c r="J37" s="168"/>
     </row>
     <row r="38" spans="1:10" ht="18.75">
       <c r="A38" s="48"/>
@@ -61120,7 +61128,7 @@
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
       <c r="I38" s="50"/>
-      <c r="J38" s="165"/>
+      <c r="J38" s="168"/>
     </row>
     <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="48"/>
@@ -61132,7 +61140,7 @@
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
       <c r="I39" s="50"/>
-      <c r="J39" s="165"/>
+      <c r="J39" s="168"/>
     </row>
     <row r="40" spans="1:10" ht="18.75">
       <c r="A40" s="48"/>
@@ -61144,7 +61152,7 @@
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
       <c r="I40" s="50"/>
-      <c r="J40" s="165"/>
+      <c r="J40" s="168"/>
     </row>
     <row r="41" spans="1:10" ht="18.75">
       <c r="A41" s="48"/>
@@ -61156,7 +61164,7 @@
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="50"/>
-      <c r="J41" s="165"/>
+      <c r="J41" s="168"/>
     </row>
     <row r="42" spans="1:10" ht="18.75">
       <c r="A42" s="48"/>
@@ -61168,7 +61176,7 @@
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
       <c r="I42" s="50"/>
-      <c r="J42" s="165"/>
+      <c r="J42" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="2">
